--- a/mentors/clint/data/Prompts_Utterances.xlsx
+++ b/mentors/clint/data/Prompts_Utterances.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13740"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="official" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="stashed" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="in progress" sheetId="3" r:id="rId5"/>
+    <sheet name="official" sheetId="1" r:id="rId1"/>
+    <sheet name="stashed" sheetId="2" r:id="rId2"/>
+    <sheet name="in progress" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="101">
   <si>
     <t>Situation</t>
   </si>
@@ -276,9 +279,6 @@
     <t>I have answered that question before. You can ask me something else.</t>
   </si>
   <si>
-    <t>I answered this question a while ago. Let’s move on.</t>
-  </si>
-  <si>
     <t>That's a great question, but unfortunately, I don't have an answer for that right now.</t>
   </si>
   <si>
@@ -310,29 +310,38 @@
   </si>
   <si>
     <t>No matter what you heard about having a mouth like a sailor, it will hurt your career.</t>
+  </si>
+  <si>
+    <t>_IDLE_</t>
+  </si>
+  <si>
+    <t>_REPEAT_BUMP_</t>
+  </si>
+  <si>
+    <t>I answered this question a while ago. Let's move on.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="PT Sans"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="PT Sans"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="PT Sans"/>
     </font>
@@ -342,7 +351,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -352,68 +361,355 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.57"/>
-    <col customWidth="1" min="2" max="2" width="26.0"/>
-    <col customWidth="1" min="3" max="3" width="68.86"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="68.85546875" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -435,7 +731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -446,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -457,7 +753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -468,7 +764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -479,7 +775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -490,7 +786,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -501,7 +797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -512,7 +808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -523,7 +819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -534,7 +830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -545,7 +841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -556,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -567,7 +863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -578,7 +874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -589,7 +885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -600,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -611,7 +907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -622,7 +918,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -633,7 +929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
@@ -644,7 +940,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -655,7 +951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -666,7 +962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -677,7 +973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -688,7 +984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
@@ -699,7 +995,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -710,7 +1006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -721,7 +1017,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
@@ -732,7 +1028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -743,7 +1039,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -754,7 +1050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
@@ -765,7 +1061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -776,7 +1072,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>13</v>
       </c>
@@ -787,7 +1083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -798,7 +1094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
@@ -809,7 +1105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -820,7 +1116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -831,7 +1127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -842,7 +1138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -853,7 +1149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
@@ -864,7 +1160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -875,7 +1171,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -886,7 +1182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,7 +1193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>13</v>
       </c>
@@ -908,7 +1204,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>13</v>
       </c>
@@ -919,7 +1215,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -930,7 +1226,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -941,7 +1237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -952,7 +1248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -963,7 +1259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -974,7 +1270,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -985,7 +1281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -996,7 +1292,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1018,7 +1314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1040,7 +1336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -1062,7 +1358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>22</v>
       </c>
@@ -1084,7 +1380,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1391,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -1117,7 +1413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1424,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>3</v>
       </c>
@@ -1139,7 +1435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
@@ -1150,7 +1446,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +1457,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -1183,7 +1479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +1501,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>3</v>
       </c>
@@ -1216,7 +1512,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1523,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>22</v>
       </c>
@@ -1238,18 +1534,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>57</v>
       </c>
@@ -1257,10 +1553,10 @@
         <v>4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>57</v>
       </c>
@@ -1268,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>57</v>
       </c>
@@ -1279,43 +1575,43 @@
         <v>4</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="6" t="s">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="6" t="s">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>57</v>
       </c>
@@ -1323,52 +1619,59 @@
         <v>4</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="6" t="s">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="6" t="s">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="6" t="s">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A87" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -2274,24 +2577,25 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.71"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="47.29"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2313,7 +2617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2324,7 +2628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2335,7 +2639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2346,7 +2650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2357,16 +2661,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -3352,23 +3656,24 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="44.43"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3379,21 +3684,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4379,6 +4684,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mentors/clint/data/Prompts_Utterances.xlsx
+++ b/mentors/clint/data/Prompts_Utterances.xlsx
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
